--- a/PSP2-Program5/psp-forms/Time In Phase.xlsx
+++ b/PSP2-Program5/psp-forms/Time In Phase.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\UniAndes\PSP2-Program5\psp-forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (8)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__8" localSheetId="0">'excel (8)'!$A$1:$E$27</definedName>
+    <definedName name="excel__1" localSheetId="0">'excel (1)'!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,8 +23,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="D:\afmap\Descargas\excel (8).iqy" name="excel (8)" type="4" refreshedVersion="5" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B5%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
+  <connection id="1" odcFile="D:\Librerias\Downloads\excel (1).iqy" name="excel (1)" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B5%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -89,13 +89,13 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 08:30 PM el 3/04/2017</t>
+    <t>Reporte generado a las 07:40 AM el 4/04/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="[h]\:mm"/>
   </numFmts>
@@ -693,7 +693,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (8)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,9 +781,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -816,9 +816,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1000,9 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
